--- a/useful/make_db.xlsx
+++ b/useful/make_db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Proj-tm-2022\src\usefull\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Proj-tm-2022\useful\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA56B2-4609-45F5-B031-B45C5152467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B81B166-475F-4EFA-AB67-AEFEB7257C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMW" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="FERRARI" sheetId="7" r:id="rId4"/>
     <sheet name="LAMBORGHINI" sheetId="8" r:id="rId5"/>
     <sheet name="AUDI" sheetId="9" r:id="rId6"/>
+    <sheet name="TOYOTA" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="468">
   <si>
     <t>BMW</t>
   </si>
@@ -1288,6 +1289,162 @@
   </si>
   <si>
     <t>Audi</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Dyna</t>
+  </si>
+  <si>
+    <t>Estima</t>
+  </si>
+  <si>
+    <t>FJ Cruiser</t>
+  </si>
+  <si>
+    <t>FJ40</t>
+  </si>
+  <si>
+    <t>Fortuner</t>
+  </si>
+  <si>
+    <t>Fun Cruiser</t>
+  </si>
+  <si>
+    <t>Funcargo</t>
+  </si>
+  <si>
+    <t>Gaia</t>
+  </si>
+  <si>
+    <t>GT86</t>
+  </si>
+  <si>
+    <t>Harrier</t>
+  </si>
+  <si>
+    <t>HDJ</t>
+  </si>
+  <si>
+    <t>Hiace</t>
+  </si>
+  <si>
+    <t>Highlander</t>
+  </si>
+  <si>
+    <t>Hilux</t>
+  </si>
+  <si>
+    <t>Ipsum</t>
+  </si>
+  <si>
+    <t>iQ</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>KJ</t>
+  </si>
+  <si>
+    <t>Land Cruiser</t>
+  </si>
+  <si>
+    <t>Land Cruiser Prado</t>
+  </si>
+  <si>
+    <t>Lite-Ace</t>
+  </si>
+  <si>
+    <t>Mark II</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Mirai</t>
+  </si>
+  <si>
+    <t>Model F</t>
+  </si>
+  <si>
+    <t>MR 2</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Opa</t>
+  </si>
+  <si>
+    <t>Paseo</t>
+  </si>
+  <si>
+    <t>Passo</t>
+  </si>
+  <si>
+    <t>Pick up</t>
+  </si>
+  <si>
+    <t>Picnic</t>
+  </si>
+  <si>
+    <t>Platz</t>
+  </si>
+  <si>
+    <t>Premio</t>
+  </si>
+  <si>
+    <t>Previa</t>
+  </si>
+  <si>
+    <t>Prius</t>
+  </si>
+  <si>
+    <t>Prius+</t>
+  </si>
+  <si>
+    <t>Proace</t>
+  </si>
+  <si>
+    <t>Ractis</t>
+  </si>
+  <si>
+    <t>Raum</t>
+  </si>
+  <si>
+    <t>RAV 4</t>
+  </si>
+  <si>
+    <t>Sequoia</t>
+  </si>
+  <si>
+    <t>Sienna</t>
+  </si>
+  <si>
+    <t>Solara</t>
+  </si>
+  <si>
+    <t>Sprinter</t>
+  </si>
+  <si>
+    <t>Starlet</t>
+  </si>
+  <si>
+    <t>Supra</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>Tercel</t>
+  </si>
+  <si>
+    <t>Town Ace</t>
   </si>
 </sst>
 </file>
@@ -1614,12 +1771,12 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -1627,12 +1784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>$B$1</f>
         <v>BMW</v>
@@ -1645,7 +1802,7 @@
         <v>("2002","BMW"),</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A68" si="0">$B$1</f>
         <v>BMW</v>
@@ -1658,7 +1815,7 @@
         <v>("i3","BMW"),</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1671,7 +1828,7 @@
         <v>("i4","BMW"),</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1684,7 +1841,7 @@
         <v>("i8","BMW"),</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1697,7 +1854,7 @@
         <v>("iX","BMW"),</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1710,7 +1867,7 @@
         <v>("iX3","BMW"),</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1723,7 +1880,7 @@
         <v>("M1","BMW"),</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1736,7 +1893,7 @@
         <v>("114","BMW"),</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1749,7 +1906,7 @@
         <v>("116","BMW"),</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1762,7 +1919,7 @@
         <v>("118","BMW"),</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1775,7 +1932,7 @@
         <v>("120","BMW"),</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1788,7 +1945,7 @@
         <v>("123","BMW"),</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1801,7 +1958,7 @@
         <v>("125","BMW"),</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1814,7 +1971,7 @@
         <v>("128","BMW"),</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1827,7 +1984,7 @@
         <v>("130","BMW"),</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1840,7 +1997,7 @@
         <v>("135","BMW"),</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1853,7 +2010,7 @@
         <v>("140","BMW"),</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1866,7 +2023,7 @@
         <v>("214","BMW"),</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1879,7 +2036,7 @@
         <v>("216","BMW"),</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1892,7 +2049,7 @@
         <v>("218","BMW"),</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1905,7 +2062,7 @@
         <v>("220","BMW"),</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1918,7 +2075,7 @@
         <v>("225","BMW"),</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1931,7 +2088,7 @@
         <v>("228","BMW"),</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1944,7 +2101,7 @@
         <v>("230","BMW"),</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1957,7 +2114,7 @@
         <v>("235","BMW"),</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1970,7 +2127,7 @@
         <v>("240","BMW"),</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1983,7 +2140,7 @@
         <v>("315","BMW"),</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -1996,7 +2153,7 @@
         <v>("316","BMW"),</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2009,7 +2166,7 @@
         <v>("318","BMW"),</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2022,7 +2179,7 @@
         <v>("320","BMW"),</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2035,7 +2192,7 @@
         <v>("323","BMW"),</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2048,7 +2205,7 @@
         <v>("324","BMW"),</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2061,7 +2218,7 @@
         <v>("325","BMW"),</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2074,7 +2231,7 @@
         <v>("328","BMW"),</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2087,7 +2244,7 @@
         <v>("330","BMW"),</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2100,7 +2257,7 @@
         <v>("335","BMW"),</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2113,7 +2270,7 @@
         <v>("340","BMW"),</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2126,7 +2283,7 @@
         <v>("418","BMW"),</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2139,7 +2296,7 @@
         <v>("420","BMW"),</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2152,7 +2309,7 @@
         <v>("425","BMW"),</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2165,7 +2322,7 @@
         <v>("428","BMW"),</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2178,7 +2335,7 @@
         <v>("430","BMW"),</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2191,7 +2348,7 @@
         <v>("435","BMW"),</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2204,7 +2361,7 @@
         <v>("440","BMW"),</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2217,7 +2374,7 @@
         <v>("518","BMW"),</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2230,7 +2387,7 @@
         <v>("520","BMW"),</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2243,7 +2400,7 @@
         <v>("523","BMW"),</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2256,7 +2413,7 @@
         <v>("524","BMW"),</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2269,7 +2426,7 @@
         <v>("525","BMW"),</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2282,7 +2439,7 @@
         <v>("528","BMW"),</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2295,7 +2452,7 @@
         <v>("530","BMW"),</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2308,7 +2465,7 @@
         <v>("535","BMW"),</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2321,7 +2478,7 @@
         <v>("540","BMW"),</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2334,7 +2491,7 @@
         <v>("545","BMW"),</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2347,7 +2504,7 @@
         <v>("550","BMW"),</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2360,7 +2517,7 @@
         <v>("Active Hybrid 5","BMW"),</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2373,7 +2530,7 @@
         <v>("620","BMW"),</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2386,7 +2543,7 @@
         <v>("628","BMW"),</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2399,7 +2556,7 @@
         <v>("630","BMW"),</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2412,7 +2569,7 @@
         <v>("633","BMW"),</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2425,7 +2582,7 @@
         <v>("635","BMW"),</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2438,7 +2595,7 @@
         <v>("640","BMW"),</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2451,7 +2608,7 @@
         <v>("645","BMW"),</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2464,7 +2621,7 @@
         <v>("650","BMW"),</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>BMW</v>
@@ -2477,7 +2634,7 @@
         <v>("725","BMW"),</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" ref="A69:A109" si="2">$B$1</f>
         <v>BMW</v>
@@ -2490,7 +2647,7 @@
         <v>("728","BMW"),</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2503,7 +2660,7 @@
         <v>("730","BMW"),</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2516,7 +2673,7 @@
         <v>("732","BMW"),</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2529,7 +2686,7 @@
         <v>("735","BMW"),</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2542,7 +2699,7 @@
         <v>("740","BMW"),</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2555,7 +2712,7 @@
         <v>("745","BMW"),</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2568,7 +2725,7 @@
         <v>("750","BMW"),</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2581,7 +2738,7 @@
         <v>("760","BMW"),</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2594,7 +2751,7 @@
         <v>("Active Hybrid 7","BMW"),</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2607,7 +2764,7 @@
         <v>("830","BMW"),</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2620,7 +2777,7 @@
         <v>("840","BMW"),</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2633,7 +2790,7 @@
         <v>("850","BMW"),</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2646,7 +2803,7 @@
         <v>("M2","BMW"),</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2659,7 +2816,7 @@
         <v>("M3","BMW"),</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2672,7 +2829,7 @@
         <v>("M4","BMW"),</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2685,7 +2842,7 @@
         <v>("M5","BMW"),</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2698,7 +2855,7 @@
         <v>("M6","BMW"),</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2711,7 +2868,7 @@
         <v>("M8","BMW"),</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2724,7 +2881,7 @@
         <v>("M850","BMW"),</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2737,7 +2894,7 @@
         <v>("Active Hybrid X6","BMW"),</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2750,7 +2907,7 @@
         <v>("X1","BMW"),</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2763,7 +2920,7 @@
         <v>("X2","BMW"),</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2776,7 +2933,7 @@
         <v>("X2 M","BMW"),</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2789,7 +2946,7 @@
         <v>("X3","BMW"),</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2802,7 +2959,7 @@
         <v>("X3 M","BMW"),</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2815,7 +2972,7 @@
         <v>("X4","BMW"),</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2828,7 +2985,7 @@
         <v>("X4","BMW"),</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2841,7 +2998,7 @@
         <v>("X4 M","BMW"),</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2854,7 +3011,7 @@
         <v>("X5","BMW"),</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2867,7 +3024,7 @@
         <v>("X5 M","BMW"),</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2880,7 +3037,7 @@
         <v>("X6","BMW"),</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2893,7 +3050,7 @@
         <v>("X6 M","BMW"),</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2906,7 +3063,7 @@
         <v>("X7","BMW"),</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2919,7 +3076,7 @@
         <v>("X7 M","BMW"),</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2932,7 +3089,7 @@
         <v>("Z1","BMW"),</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2945,7 +3102,7 @@
         <v>("Z3","BMW"),</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2958,7 +3115,7 @@
         <v>("Z3 M","BMW"),</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2971,7 +3128,7 @@
         <v>("Z4","BMW"),</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2984,7 +3141,7 @@
         <v>("Z4 M","BMW"),</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -2997,7 +3154,7 @@
         <v>("Z8","BMW"),</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
         <v>BMW</v>
@@ -3023,12 +3180,12 @@
       <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -3036,12 +3193,12 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>$B$1</f>
         <v>Mercedes-Benz</v>
@@ -3054,7 +3211,7 @@
         <v>("170","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A64" si="0">$B$1</f>
         <v>Mercedes-Benz</v>
@@ -3067,7 +3224,7 @@
         <v>("180","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3080,7 +3237,7 @@
         <v>("190","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3093,7 +3250,7 @@
         <v>("200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3106,7 +3263,7 @@
         <v>("208","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3119,7 +3276,7 @@
         <v>("210/310","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3132,7 +3289,7 @@
         <v>("220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3145,7 +3302,7 @@
         <v>("230","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3158,7 +3315,7 @@
         <v>("240","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3171,7 +3328,7 @@
         <v>("250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3184,7 +3341,7 @@
         <v>("260","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3197,7 +3354,7 @@
         <v>("270","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3210,7 +3367,7 @@
         <v>("280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3223,7 +3380,7 @@
         <v>("300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3236,7 +3393,7 @@
         <v>("308","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3249,7 +3406,7 @@
         <v>("320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3262,7 +3419,7 @@
         <v>("350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3275,7 +3432,7 @@
         <v>("380","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3288,7 +3445,7 @@
         <v>("400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3301,7 +3458,7 @@
         <v>("416","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3314,7 +3471,7 @@
         <v>("420","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3327,7 +3484,7 @@
         <v>("450","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3340,7 +3497,7 @@
         <v>("500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3353,7 +3510,7 @@
         <v>("560","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3366,7 +3523,7 @@
         <v>("600","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3379,7 +3536,7 @@
         <v>("Actros","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3392,7 +3549,7 @@
         <v>("AMG GT","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3405,7 +3562,7 @@
         <v>("Atego","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3418,7 +3575,7 @@
         <v>("CE 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3431,7 +3588,7 @@
         <v>("CE 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3444,7 +3601,7 @@
         <v>("CE 230","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3457,7 +3614,7 @@
         <v>("CE 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3470,7 +3627,7 @@
         <v>("CE 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3483,7 +3640,7 @@
         <v>("Citan","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3496,7 +3653,7 @@
         <v>("CL","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3509,7 +3666,7 @@
         <v>("CL 160","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3522,7 +3679,7 @@
         <v>("CL 180","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3535,7 +3692,7 @@
         <v>("CL 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3548,7 +3705,7 @@
         <v>("CL 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3561,7 +3718,7 @@
         <v>("CL 230","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3574,7 +3731,7 @@
         <v>("CL 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3587,7 +3744,7 @@
         <v>("CL 420","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3600,7 +3757,7 @@
         <v>("CL 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3613,7 +3770,7 @@
         <v>("CL 55 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3626,7 +3783,7 @@
         <v>("CL 600","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3639,7 +3796,7 @@
         <v>("CL 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3652,7 +3809,7 @@
         <v>("CL 65 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3665,7 +3822,7 @@
         <v>("CLA 180","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3678,7 +3835,7 @@
         <v>("CLA 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3691,7 +3848,7 @@
         <v>("CLA 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3704,7 +3861,7 @@
         <v>("CLA 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3717,7 +3874,7 @@
         <v>("CLA 35 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3730,7 +3887,7 @@
         <v>("CLA 45 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3743,7 +3900,7 @@
         <v>("A 140","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3756,7 +3913,7 @@
         <v>("A 150","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3769,7 +3926,7 @@
         <v>("A 160","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3782,7 +3939,7 @@
         <v>("A 170","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3795,7 +3952,7 @@
         <v>("A 180","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3808,7 +3965,7 @@
         <v>("A 190","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3821,7 +3978,7 @@
         <v>("A 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Mercedes-Benz</v>
@@ -3834,7 +3991,7 @@
         <v>("A 210","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" ref="A65:A128" si="2">$B$1</f>
         <v>Mercedes-Benz</v>
@@ -3847,7 +4004,7 @@
         <v>("A 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3860,7 +4017,7 @@
         <v>("A 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3873,7 +4030,7 @@
         <v>("A 35 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3886,7 +4043,7 @@
         <v>("A 45 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3899,7 +4056,7 @@
         <v>("B 150","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3912,7 +4069,7 @@
         <v>("B 160","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3925,7 +4082,7 @@
         <v>("B 170","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3938,7 +4095,7 @@
         <v>("B 180","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3951,7 +4108,7 @@
         <v>("B 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3964,7 +4121,7 @@
         <v>("B 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3977,7 +4134,7 @@
         <v>("B 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -3990,7 +4147,7 @@
         <v>("B Electric Drive","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4003,7 +4160,7 @@
         <v>("C 160","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4016,7 +4173,7 @@
         <v>("C 180","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4029,7 +4186,7 @@
         <v>("C 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4042,7 +4199,7 @@
         <v>("C 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4055,7 +4212,7 @@
         <v>("C 230","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4068,7 +4225,7 @@
         <v>("C 240","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4081,7 +4238,7 @@
         <v>("C 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4094,7 +4251,7 @@
         <v>("C 270","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4107,7 +4264,7 @@
         <v>("C 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4120,7 +4277,7 @@
         <v>("C 30 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4133,7 +4290,7 @@
         <v>("C 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4146,7 +4303,7 @@
         <v>("C 32 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4159,7 +4316,7 @@
         <v>("C 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4172,7 +4329,7 @@
         <v>("C 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4185,7 +4342,7 @@
         <v>("C 36 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4198,7 +4355,7 @@
         <v>("C 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4211,7 +4368,7 @@
         <v>("C 43 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4224,7 +4381,7 @@
         <v>("C 450","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4237,7 +4394,7 @@
         <v>("C 55 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4250,7 +4407,7 @@
         <v>("C 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4263,7 +4420,7 @@
         <v>("E 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4276,7 +4433,7 @@
         <v>("E 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4289,7 +4446,7 @@
         <v>("E 230","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4302,7 +4459,7 @@
         <v>("E 240","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4315,7 +4472,7 @@
         <v>("E 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4328,7 +4485,7 @@
         <v>("E 260","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4341,7 +4498,7 @@
         <v>("E 270","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4354,7 +4511,7 @@
         <v>("E 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4367,7 +4524,7 @@
         <v>("E 290","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4380,7 +4537,7 @@
         <v>("E 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4393,7 +4550,7 @@
         <v>("E 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4406,7 +4563,7 @@
         <v>("E 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4419,7 +4576,7 @@
         <v>("E 36 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4432,7 +4589,7 @@
         <v>("E 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4445,7 +4602,7 @@
         <v>("E 420","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4458,7 +4615,7 @@
         <v>("E 43 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4471,7 +4628,7 @@
         <v>("E 430","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4484,7 +4641,7 @@
         <v>("E 450","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4497,7 +4654,7 @@
         <v>("E 50 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4510,7 +4667,7 @@
         <v>("E 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4523,7 +4680,7 @@
         <v>("E 53 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4536,7 +4693,7 @@
         <v>("E 55 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4549,7 +4706,7 @@
         <v>("E 550","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4562,7 +4719,7 @@
         <v>("E 60 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4575,7 +4732,7 @@
         <v>("E 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4588,7 +4745,7 @@
         <v>("Classe EQ (tous)","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4601,7 +4758,7 @@
         <v>("EQA","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4614,7 +4771,7 @@
         <v>("EQA 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4627,7 +4784,7 @@
         <v>("EQA 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4640,7 +4797,7 @@
         <v>("EQB 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4653,7 +4810,7 @@
         <v>("EQB 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="2"/>
         <v>Mercedes-Benz</v>
@@ -4666,7 +4823,7 @@
         <v>("EQC 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" ref="A129:A192" si="4">$B$1</f>
         <v>Mercedes-Benz</v>
@@ -4679,7 +4836,7 @@
         <v>("EQE 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4692,7 +4849,7 @@
         <v>("EQS","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4705,7 +4862,7 @@
         <v>("EQV 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4718,7 +4875,7 @@
         <v>("G","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4731,7 +4888,7 @@
         <v>("G 230","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4744,7 +4901,7 @@
         <v>("G 240","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4757,7 +4914,7 @@
         <v>("G 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4770,7 +4927,7 @@
         <v>("G 270","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4783,7 +4940,7 @@
         <v>("G 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4796,7 +4953,7 @@
         <v>("G 290","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4809,7 +4966,7 @@
         <v>("G 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4822,7 +4979,7 @@
         <v>("G 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4835,7 +4992,7 @@
         <v>("G 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4848,7 +5005,7 @@
         <v>("G 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4861,7 +5018,7 @@
         <v>("G 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4874,7 +5031,7 @@
         <v>("G 55 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4887,7 +5044,7 @@
         <v>("G 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4900,7 +5057,7 @@
         <v>("G 65 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4913,7 +5070,7 @@
         <v>("G 650","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4926,7 +5083,7 @@
         <v>("ML 230","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4939,7 +5096,7 @@
         <v>("ML 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4952,7 +5109,7 @@
         <v>("ML 270","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4965,7 +5122,7 @@
         <v>("ML 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4978,7 +5135,7 @@
         <v>("ML 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -4991,7 +5148,7 @@
         <v>("ML 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5004,7 +5161,7 @@
         <v>("ML 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5017,7 +5174,7 @@
         <v>("ML 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5030,7 +5187,7 @@
         <v>("ML 420","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5043,7 +5200,7 @@
         <v>("ML 430","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5056,7 +5213,7 @@
         <v>("ML 450","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5069,7 +5226,7 @@
         <v>("ML 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5082,7 +5239,7 @@
         <v>("ML 55 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5095,7 +5252,7 @@
         <v>("ML 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5108,7 +5265,7 @@
         <v>("R 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5121,7 +5278,7 @@
         <v>("R 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5134,7 +5291,7 @@
         <v>("R 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5147,7 +5304,7 @@
         <v>("R 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5160,7 +5317,7 @@
         <v>("R 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5173,7 +5330,7 @@
         <v>("R 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5186,7 +5343,7 @@
         <v>("S 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5199,7 +5356,7 @@
         <v>("S 260","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5212,7 +5369,7 @@
         <v>("S 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5225,7 +5382,7 @@
         <v>("S 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5238,7 +5395,7 @@
         <v>("S 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5251,7 +5408,7 @@
         <v>("S 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5264,7 +5421,7 @@
         <v>("S 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5277,7 +5434,7 @@
         <v>("S 420","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5290,7 +5447,7 @@
         <v>("S 430","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5303,7 +5460,7 @@
         <v>("S 450","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5316,7 +5473,7 @@
         <v>("S 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5329,7 +5486,7 @@
         <v>("S 55 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5342,7 +5499,7 @@
         <v>("S 550","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5355,7 +5512,7 @@
         <v>("S 560","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5368,7 +5525,7 @@
         <v>("S 560 E","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5381,7 +5538,7 @@
         <v>("S 580","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5394,7 +5551,7 @@
         <v>("S 600","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5407,7 +5564,7 @@
         <v>("S 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5420,7 +5577,7 @@
         <v>("S 65 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5433,7 +5590,7 @@
         <v>("S 650","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5446,7 +5603,7 @@
         <v>("V","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5459,7 +5616,7 @@
         <v>("V 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5472,7 +5629,7 @@
         <v>("V 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5485,7 +5642,7 @@
         <v>("V 230","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="4"/>
         <v>Mercedes-Benz</v>
@@ -5498,7 +5655,7 @@
         <v>("V 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" ref="A193:A256" si="6">$B$1</f>
         <v>Mercedes-Benz</v>
@@ -5511,7 +5668,7 @@
         <v>("V 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5524,7 +5681,7 @@
         <v>("V 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5537,7 +5694,7 @@
         <v>("X 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5550,7 +5707,7 @@
         <v>("X 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5563,7 +5720,7 @@
         <v>("X 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5576,7 +5733,7 @@
         <v>("CLC","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5589,7 +5746,7 @@
         <v>("CLK","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5602,7 +5759,7 @@
         <v>("CLK 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5615,7 +5772,7 @@
         <v>("CLK 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5628,7 +5785,7 @@
         <v>("CLK 230","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5641,7 +5798,7 @@
         <v>("CLK 240","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5654,7 +5811,7 @@
         <v>("CLK 270","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5667,7 +5824,7 @@
         <v>("CLK 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5680,7 +5837,7 @@
         <v>("CLK 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5693,7 +5850,7 @@
         <v>("CLK 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5706,7 +5863,7 @@
         <v>("CLK 430","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5719,7 +5876,7 @@
         <v>("CLK 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5732,7 +5889,7 @@
         <v>("CLK 55 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5745,7 +5902,7 @@
         <v>("CLK 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5758,7 +5915,7 @@
         <v>("CLS","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5771,7 +5928,7 @@
         <v>("CLS 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5784,7 +5941,7 @@
         <v>("CLS 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5797,7 +5954,7 @@
         <v>("CLS 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5810,7 +5967,7 @@
         <v>("CLS 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5823,7 +5980,7 @@
         <v>("CLS 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5836,7 +5993,7 @@
         <v>("CLS 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5849,7 +6006,7 @@
         <v>("CLS 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5862,7 +6019,7 @@
         <v>("CLS 450","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5875,7 +6032,7 @@
         <v>("CLS 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5888,7 +6045,7 @@
         <v>("CLS 53 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5901,7 +6058,7 @@
         <v>("CLS 55 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5914,7 +6071,7 @@
         <v>("CLS 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5927,7 +6084,7 @@
         <v>("GL 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5940,7 +6097,7 @@
         <v>("GL 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5953,7 +6110,7 @@
         <v>("GL 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5966,7 +6123,7 @@
         <v>("GL 420","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5979,7 +6136,7 @@
         <v>("GL 450","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -5992,7 +6149,7 @@
         <v>("GL 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6005,7 +6162,7 @@
         <v>("GL 55 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6018,7 +6175,7 @@
         <v>("GL 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6031,7 +6188,7 @@
         <v>("GLA 180","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6044,7 +6201,7 @@
         <v>("GLA 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6057,7 +6214,7 @@
         <v>("GLA 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6070,7 +6227,7 @@
         <v>("GLA 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6083,7 +6240,7 @@
         <v>("GLA 35 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6096,7 +6253,7 @@
         <v>("GLA 45 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6109,7 +6266,7 @@
         <v>("GLB 180","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6122,7 +6279,7 @@
         <v>("GLB 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6135,7 +6292,7 @@
         <v>("GLB 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6148,7 +6305,7 @@
         <v>("GLB 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6161,7 +6318,7 @@
         <v>("GLB 35 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6174,7 +6331,7 @@
         <v>("GLC 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6187,7 +6344,7 @@
         <v>("GLC 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6200,7 +6357,7 @@
         <v>("GLC 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6213,7 +6370,7 @@
         <v>("GLC 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6226,7 +6383,7 @@
         <v>("GLC 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6239,7 +6396,7 @@
         <v>("GLC 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6252,7 +6409,7 @@
         <v>("GLC 43 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6265,7 +6422,7 @@
         <v>("GLC 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6278,7 +6435,7 @@
         <v>("GLE 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6291,7 +6448,7 @@
         <v>("GLE 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6304,7 +6461,7 @@
         <v>("GLE 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6317,7 +6474,7 @@
         <v>("GLE 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="6"/>
         <v>Mercedes-Benz</v>
@@ -6330,7 +6487,7 @@
         <v>("GLE 43 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" ref="A257:A295" si="8">$B$1</f>
         <v>Mercedes-Benz</v>
@@ -6343,7 +6500,7 @@
         <v>("GLE 450","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6356,7 +6513,7 @@
         <v>("GLE 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6369,7 +6526,7 @@
         <v>("GLE 53 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6382,7 +6539,7 @@
         <v>("GLE 580","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6395,7 +6552,7 @@
         <v>("GLE 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6408,7 +6565,7 @@
         <v>("GLK 200","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6421,7 +6578,7 @@
         <v>("GLK 220","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6434,7 +6591,7 @@
         <v>("GLK 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6447,7 +6604,7 @@
         <v>("GLK 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6460,7 +6617,7 @@
         <v>("GLK 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6473,7 +6630,7 @@
         <v>("GLK 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6486,7 +6643,7 @@
         <v>("GLK 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6499,7 +6656,7 @@
         <v>("GLS 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6512,7 +6669,7 @@
         <v>("GLS 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6525,7 +6682,7 @@
         <v>("GLS 450","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6538,7 +6695,7 @@
         <v>("GLS 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6551,7 +6708,7 @@
         <v>("GLS 580","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6564,7 +6721,7 @@
         <v>("GLS 600","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6577,7 +6734,7 @@
         <v>("GLS 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6590,7 +6747,7 @@
         <v>("Marco Polo","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6603,7 +6760,7 @@
         <v>("MB 100","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6616,7 +6773,7 @@
         <v>("SL 230","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6629,7 +6786,7 @@
         <v>("SL 250","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6642,7 +6799,7 @@
         <v>("SL 280","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6655,7 +6812,7 @@
         <v>("SL 300","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6668,7 +6825,7 @@
         <v>("SL 320","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6681,7 +6838,7 @@
         <v>("SL 350","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6694,7 +6851,7 @@
         <v>("SL 380","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6707,7 +6864,7 @@
         <v>("SL 400","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6720,7 +6877,7 @@
         <v>("SL 420","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6733,7 +6890,7 @@
         <v>("SL 450","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6746,7 +6903,7 @@
         <v>("SL 500","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6759,7 +6916,7 @@
         <v>("SL 55 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6772,7 +6929,7 @@
         <v>("SL 560","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6785,7 +6942,7 @@
         <v>("SL 60 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6798,7 +6955,7 @@
         <v>("SL 600","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6811,7 +6968,7 @@
         <v>("SL 63 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6824,7 +6981,7 @@
         <v>("SL 65 AMG","Mercedes-Benz"),</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="8"/>
         <v>Mercedes-Benz</v>
@@ -6850,12 +7007,12 @@
       <selection activeCell="C32" sqref="C4:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -6863,12 +7020,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>$B$1</f>
         <v>Porsche</v>
@@ -6881,7 +7038,7 @@
         <v>("356","Porsche"),</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A32" si="0">$B$1</f>
         <v>Porsche</v>
@@ -6894,7 +7051,7 @@
         <v>("550","Porsche"),</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -6907,7 +7064,7 @@
         <v>("718 Spyder","Porsche"),</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -6920,7 +7077,7 @@
         <v>("912","Porsche"),</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -6933,7 +7090,7 @@
         <v>("914","Porsche"),</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -6946,7 +7103,7 @@
         <v>("918","Porsche"),</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -6959,7 +7116,7 @@
         <v>("924","Porsche"),</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -6972,7 +7129,7 @@
         <v>("928","Porsche"),</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -6985,7 +7142,7 @@
         <v>("944","Porsche"),</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -6998,7 +7155,7 @@
         <v>("959","Porsche"),</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7011,7 +7168,7 @@
         <v>("962","Porsche"),</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7024,7 +7181,7 @@
         <v>("968","Porsche"),</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7037,7 +7194,7 @@
         <v>("Boxster","Porsche"),</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7050,7 +7207,7 @@
         <v>("Carrera GT","Porsche"),</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7063,7 +7220,7 @@
         <v>("Cayenne","Porsche"),</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7076,7 +7233,7 @@
         <v>("Cayman","Porsche"),</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7089,7 +7246,7 @@
         <v>("Macan","Porsche"),</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7102,7 +7259,7 @@
         <v>("Panamera","Porsche"),</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7115,7 +7272,7 @@
         <v>("911","Porsche"),</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7128,7 +7285,7 @@
         <v>("930","Porsche"),</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7141,7 +7298,7 @@
         <v>("964","Porsche"),</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7154,7 +7311,7 @@
         <v>("991","Porsche"),</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7167,7 +7324,7 @@
         <v>("992","Porsche"),</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7180,7 +7337,7 @@
         <v>("993","Porsche"),</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7193,7 +7350,7 @@
         <v>("996","Porsche"),</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7206,7 +7363,7 @@
         <v>("997","Porsche"),</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7219,7 +7376,7 @@
         <v>("Targa","Porsche"),</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7232,7 +7389,7 @@
         <v>("Taycan","Porsche"),</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Porsche</v>
@@ -7258,12 +7415,12 @@
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -7271,12 +7428,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>$B$1</f>
         <v>Ferrari</v>
@@ -7289,7 +7446,7 @@
         <v>("195","Ferrari"),</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A55" si="0">$B$1</f>
         <v>Ferrari</v>
@@ -7302,7 +7459,7 @@
         <v>("206","Ferrari"),</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7315,7 +7472,7 @@
         <v>("208","Ferrari"),</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7328,7 +7485,7 @@
         <v>("246","Ferrari"),</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7341,7 +7498,7 @@
         <v>("250","Ferrari"),</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7354,7 +7511,7 @@
         <v>("275","Ferrari"),</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7367,7 +7524,7 @@
         <v>("288","Ferrari"),</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7380,7 +7537,7 @@
         <v>("308","Ferrari"),</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7393,7 +7550,7 @@
         <v>("328","Ferrari"),</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7406,7 +7563,7 @@
         <v>("330","Ferrari"),</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7419,7 +7576,7 @@
         <v>("348","Ferrari"),</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7432,7 +7589,7 @@
         <v>("360","Ferrari"),</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7445,7 +7602,7 @@
         <v>("365","Ferrari"),</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7458,7 +7615,7 @@
         <v>("400","Ferrari"),</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7471,7 +7628,7 @@
         <v>("412","Ferrari"),</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7484,7 +7641,7 @@
         <v>("430 Scuderia","Ferrari"),</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7497,7 +7654,7 @@
         <v>("456","Ferrari"),</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7510,7 +7667,7 @@
         <v>("458","Ferrari"),</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7523,7 +7680,7 @@
         <v>("488","Ferrari"),</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7536,7 +7693,7 @@
         <v>("512","Ferrari"),</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7549,7 +7706,7 @@
         <v>("550","Ferrari"),</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7562,7 +7719,7 @@
         <v>("575","Ferrari"),</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7575,7 +7732,7 @@
         <v>("599","Ferrari"),</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7588,7 +7745,7 @@
         <v>("612","Ferrari"),</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7601,7 +7758,7 @@
         <v>("750","Ferrari"),</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7614,7 +7771,7 @@
         <v>("812","Ferrari"),</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7627,7 +7784,7 @@
         <v>("California","Ferrari"),</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7640,7 +7797,7 @@
         <v>("Daytona","Ferrari"),</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7653,7 +7810,7 @@
         <v>("Dino GT4","Ferrari"),</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7666,7 +7823,7 @@
         <v>("Enzo Ferrari","Ferrari"),</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7679,7 +7836,7 @@
         <v>("F12","Ferrari"),</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7692,7 +7849,7 @@
         <v>("F355","Ferrari"),</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7705,7 +7862,7 @@
         <v>("F40","Ferrari"),</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7718,7 +7875,7 @@
         <v>("F430","Ferrari"),</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7731,7 +7888,7 @@
         <v>("F50","Ferrari"),</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7744,7 +7901,7 @@
         <v>("F512","Ferrari"),</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7757,7 +7914,7 @@
         <v>("F8 Spider","Ferrari"),</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7770,7 +7927,7 @@
         <v>("F8 Tributo","Ferrari"),</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7783,7 +7940,7 @@
         <v>("FF","Ferrari"),</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7796,7 +7953,7 @@
         <v>("FXX","Ferrari"),</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7809,7 +7966,7 @@
         <v>("GTC4 Lusso","Ferrari"),</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7822,7 +7979,7 @@
         <v>("LaFerrari","Ferrari"),</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7835,7 +7992,7 @@
         <v>("Mondial","Ferrari"),</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7848,7 +8005,7 @@
         <v>("Monza","Ferrari"),</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7861,7 +8018,7 @@
         <v>("Portofino","Ferrari"),</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7874,7 +8031,7 @@
         <v>("Roma","Ferrari"),</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7887,7 +8044,7 @@
         <v>("Scuderia Spider 16M","Ferrari"),</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7900,7 +8057,7 @@
         <v>("SF90 Spider","Ferrari"),</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7913,7 +8070,7 @@
         <v>("SF90 Stradale","Ferrari"),</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7926,7 +8083,7 @@
         <v>("Superamerica","Ferrari"),</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7939,7 +8096,7 @@
         <v>("Testarossa","Ferrari"),</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Ferrari</v>
@@ -7965,12 +8122,12 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -7978,12 +8135,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>$B$1</f>
         <v>Lamborghini</v>
@@ -7996,20 +8153,20 @@
         <v>("Asterion","Lamborghini"),</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f t="shared" ref="A5:A55" si="0">$B$1</f>
+        <f t="shared" ref="A5:A23" si="0">$B$1</f>
         <v>Lamborghini</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C55" si="1">"("""&amp;B5&amp;""","""&amp;A5&amp;"""),"</f>
+        <f t="shared" ref="C5:C23" si="1">"("""&amp;B5&amp;""","""&amp;A5&amp;"""),"</f>
         <v>("Aventador","Lamborghini"),</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8022,7 +8179,7 @@
         <v>("Centenario","Lamborghini"),</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8035,7 +8192,7 @@
         <v>("Countach","Lamborghini"),</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8048,7 +8205,7 @@
         <v>("Diablo","Lamborghini"),</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8061,7 +8218,7 @@
         <v>("Espada","Lamborghini"),</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8074,7 +8231,7 @@
         <v>("Estoque","Lamborghini"),</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8087,7 +8244,7 @@
         <v>("Gallardo","Lamborghini"),</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8100,7 +8257,7 @@
         <v>("Huracan","Lamborghini"),</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8113,7 +8270,7 @@
         <v>("Jalpa","Lamborghini"),</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8126,7 +8283,7 @@
         <v>("LM","Lamborghini"),</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8139,7 +8296,7 @@
         <v>("Miura","Lamborghini"),</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8152,7 +8309,7 @@
         <v>("Murciélago","Lamborghini"),</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8165,7 +8322,7 @@
         <v>("Reventon","Lamborghini"),</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8178,7 +8335,7 @@
         <v>("Sian FKP 37","Lamborghini"),</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8191,7 +8348,7 @@
         <v>("Terzo Millennio","Lamborghini"),</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8204,7 +8361,7 @@
         <v>("Urraco P250","Lamborghini"),</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8217,7 +8374,7 @@
         <v>("Urus","Lamborghini"),</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8230,7 +8387,7 @@
         <v>("Veneno","Lamborghini"),</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Lamborghini</v>
@@ -8252,16 +8409,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7510FB8-EB7C-4597-8093-BE66B6320C89}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -8269,12 +8426,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>$B$1</f>
         <v>Audi</v>
@@ -8287,7 +8444,7 @@
         <v>("100","Audi"),</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A60" si="0">$B$1</f>
         <v>Audi</v>
@@ -8300,7 +8457,7 @@
         <v>("200","Audi"),</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8313,7 +8470,7 @@
         <v>("50","Audi"),</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8326,7 +8483,7 @@
         <v>("80","Audi"),</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8339,7 +8496,7 @@
         <v>("90","Audi"),</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8352,7 +8509,7 @@
         <v>("A1","Audi"),</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8365,7 +8522,7 @@
         <v>("A2","Audi"),</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8378,7 +8535,7 @@
         <v>("A3","Audi"),</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8391,7 +8548,7 @@
         <v>("A4","Audi"),</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8404,7 +8561,7 @@
         <v>("A4 allroad","Audi"),</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8417,7 +8574,7 @@
         <v>("A5","Audi"),</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8430,7 +8587,7 @@
         <v>("A6","Audi"),</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8443,7 +8600,7 @@
         <v>("A6 allroad","Audi"),</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8456,7 +8613,7 @@
         <v>("A7","Audi"),</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8469,7 +8626,7 @@
         <v>("A8","Audi"),</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8482,7 +8639,7 @@
         <v>("Allroad","Audi"),</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8495,7 +8652,7 @@
         <v>("Cabriolet","Audi"),</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8508,7 +8665,7 @@
         <v>("Coupe","Audi"),</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8521,7 +8678,7 @@
         <v>("e-tron","Audi"),</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8534,7 +8691,7 @@
         <v>("e-tron GT","Audi"),</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8547,7 +8704,7 @@
         <v>("Q1","Audi"),</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8560,7 +8717,7 @@
         <v>("Q2","Audi"),</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8573,7 +8730,7 @@
         <v>("Q3","Audi"),</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8586,7 +8743,7 @@
         <v>("Q4 e-tron","Audi"),</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8599,7 +8756,7 @@
         <v>("Q5","Audi"),</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8612,7 +8769,7 @@
         <v>("Q7","Audi"),</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8625,7 +8782,7 @@
         <v>("Q8","Audi"),</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8638,7 +8795,7 @@
         <v>("QUATTRO","Audi"),</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8651,7 +8808,7 @@
         <v>("R8","Audi"),</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8664,7 +8821,7 @@
         <v>("RS","Audi"),</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8677,7 +8834,7 @@
         <v>("RS Q3","Audi"),</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8690,7 +8847,7 @@
         <v>("RS Q5","Audi"),</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8703,7 +8860,7 @@
         <v>("RS Q8","Audi"),</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8716,7 +8873,7 @@
         <v>("RS2","Audi"),</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8729,7 +8886,7 @@
         <v>("RS3","Audi"),</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8742,7 +8899,7 @@
         <v>("RS4","Audi"),</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8755,7 +8912,7 @@
         <v>("RS5","Audi"),</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8768,7 +8925,7 @@
         <v>("RS6","Audi"),</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8781,7 +8938,7 @@
         <v>("RS7","Audi"),</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8794,7 +8951,7 @@
         <v>("S1","Audi"),</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8807,7 +8964,7 @@
         <v>("S2","Audi"),</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8820,7 +8977,7 @@
         <v>("S3","Audi"),</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8833,7 +8990,7 @@
         <v>("S4","Audi"),</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8846,7 +9003,7 @@
         <v>("S5","Audi"),</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8859,7 +9016,7 @@
         <v>("S6","Audi"),</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8872,7 +9029,7 @@
         <v>("S7","Audi"),</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8885,7 +9042,7 @@
         <v>("S8","Audi"),</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8898,7 +9055,7 @@
         <v>("SQ2","Audi"),</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8911,7 +9068,7 @@
         <v>("SQ3","Audi"),</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8924,7 +9081,7 @@
         <v>("SQ5","Audi"),</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8937,7 +9094,7 @@
         <v>("SQ7","Audi"),</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8950,7 +9107,7 @@
         <v>("SQ8","Audi"),</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8963,7 +9120,7 @@
         <v>("TT","Audi"),</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8976,7 +9133,7 @@
         <v>("TT RS","Audi"),</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -8989,7 +9146,7 @@
         <v>("TTS","Audi"),</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -9002,7 +9159,7 @@
         <v>("V8","Audi"),</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Audi</v>
@@ -9013,6 +9170,700 @@
       <c r="C60" t="str">
         <f t="shared" si="1"/>
         <v>("Autres","Audi"),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19CA6B7-56A9-42B8-BAFA-A139B9E8D523}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A31" si="0">$B$1</f>
+        <v>Toyota</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"("""&amp;B4&amp;""","""&amp;A4&amp;"""),"</f>
+        <v>("Dyna","Toyota"),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C54" si="1">"("""&amp;B5&amp;""","""&amp;A5&amp;"""),"</f>
+        <v>("Estima","Toyota"),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>("FJ Cruiser","Toyota"),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>("FJ40","Toyota"),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>("Fortuner","Toyota"),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>("Fun Cruiser","Toyota"),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>("Funcargo","Toyota"),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>("Gaia","Toyota"),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>("GT86","Toyota"),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>("Harrier","Toyota"),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>("HDJ","Toyota"),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>("Hiace","Toyota"),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>("Highlander","Toyota"),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>("Hilux","Toyota"),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>("Ipsum","Toyota"),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>("iQ","Toyota"),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>("Ist","Toyota"),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>("KJ","Toyota"),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>("Land Cruiser","Toyota"),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>("Land Cruiser Prado","Toyota"),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>("Lite-Ace","Toyota"),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>("Mark II","Toyota"),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>("Matrix","Toyota"),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>("Mirai","Toyota"),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>("Model F","Toyota"),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>("MR 2","Toyota"),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>("Nadia","Toyota"),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>("Noah","Toyota"),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" ref="A32:A68" si="2">$B$1</f>
+        <v>Toyota</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>("Opa","Toyota"),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>("Paseo","Toyota"),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>("Passo","Toyota"),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>("Pick up","Toyota"),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>("Picnic","Toyota"),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>("Platz","Toyota"),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>("Premio","Toyota"),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>("Previa","Toyota"),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>("Prius","Toyota"),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>("Prius+","Toyota"),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>("Proace","Toyota"),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>("Ractis","Toyota"),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>("Raum","Toyota"),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>("RAV 4","Toyota"),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>("Sequoia","Toyota"),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>("Sienna","Toyota"),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>("Solara","Toyota"),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>("Sprinter","Toyota"),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>("Starlet","Toyota"),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>("Supra","Toyota"),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>("Tacoma","Toyota"),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>("Tercel","Toyota"),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="2"/>
+        <v>Toyota</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>("Town Ace","Toyota"),</v>
       </c>
     </row>
   </sheetData>
